--- a/src/main/resources/public/excel/mould.xlsx
+++ b/src/main/resources/public/excel/mould.xlsx
@@ -1423,13 +1423,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="16.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="64.83203125" style="3" customWidth="1"/>
-    <col min="6" max="220" width="16.33203125" style="3" customWidth="1"/>
-    <col min="221" max="16384" width="16.33203125" style="3"/>
+    <col min="6" max="219" width="16.33203125" style="3" customWidth="1"/>
+    <col min="220" max="16384" width="16.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1473,18 +1472,12 @@
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
+    <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18:A1048576 A4:A16">
-      <formula1>"银片-复合银片,银片-整体银片,触点-二复合银点,触点-三复合银点,触点-整体银点,铆钉-紫铜铆钉,铆钉-黄铜铆钉,铆钉-铝铆钉,铆钉-铁铆钉,铆钉-销钉"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
